--- a/medicine/Sexualité et sexologie/Série_rose/Série_rose.xlsx
+++ b/medicine/Sexualité et sexologie/Série_rose/Série_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_rose</t>
+          <t>Série_rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Série rose est une série télévisée française en 26 épisodes de 28 minutes, produite par Pierre Grimblat[1] diffusée à partir du 8 novembre 1986 sur FR3 et rediffusée sur RTL9 et NT1.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série rose est une série télévisée française en 26 épisodes de 28 minutes, produite par Pierre Grimblat diffusée à partir du 8 novembre 1986 sur FR3 et rediffusée sur RTL9 et NT1.
 Au Québec, elle a été diffusée à partir du 8 septembre 1990 à Télévision Quatre-Saisons avant Bleu Nuit, puis à partir du 8 octobre 1993 à Super Écran.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_rose</t>
+          <t>Série_rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Dans le secret des bibliothèques, derrière les reliures sévères et précieuses, se cachent bien des mystères. Les plus doux de ces mystères nous viennent des grands écrivains eux-mêmes. Loin, bien loin de leurs œuvres officiellement reconnues, nombre d'auteurs célèbres, sous leur nom ou un pseudonyme, se divertirent à écrire des récits où les jeux de l'amour et de la beauté s'épanouirent. Ces récits, la Série rose est allée les découvrir pour vous, public sensible et averti. Nous allons pour vous tourner les pages de ces livres secrets dont les années n'ont pas effacé le parfum. La Série rose s'ouvre à vous… »
 Cette série est une anthologie d'histoires libertines adaptées d'œuvres littéraires françaises et étrangères du XVIIIe siècle à nos jours.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_rose</t>
+          <t>Série_rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,19 +558,21 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Série rose
 Sociétés de production : FR3, Hamster Productions
-Sociétés de distribution [2] :
+Sociétés de distribution  :
 France : FR3, NT1, Pickwick, RTL9
 Pays d’origine :  France
 Langue : français
 Format : couleurs - 1,33:1 - DTS / Dolby Digital - 35 mm
 Genre : anthologie, comédie, érotique, historique, romance
 Durée : 28 minutes par épisode
-Série interdit aux moins de 16 ans lors de sa diffusion en France[3].</t>
+Série interdit aux moins de 16 ans lors de sa diffusion en France.</t>
         </is>
       </c>
     </row>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_rose</t>
+          <t>Série_rose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Serge Avédikian
@@ -592,7 +610,7 @@
 Olivia Brunaux
 Philippe Caroit
 Jean-Paul Comart
-Penélope Cruz[4]
+Penélope Cruz
 Bruno Devoldère
 Patrick Fierry
 Anne Fontaine
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9rie_rose</t>
+          <t>Série_rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +655,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La Gageure des trois commères (Jean de La Fontaine - Michel Boisrond)
 À la feuille de rose, maison turque (Guy de Maupassant - Michel Boisrond)
